--- a/biology/Zoologie/Beaumarquet_melba/Beaumarquet_melba.xlsx
+++ b/biology/Zoologie/Beaumarquet_melba/Beaumarquet_melba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pytilia melba
 Le Beaumarquet melba (Pytilia melba) est une espèce de passereaux appartenant à la famille des Estrildidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 12 à 13 cm de longueur. Il présente un dimorphisme sexuel.
 Le mâle a le front, le bec, le menton et la gorge rouge écarlate, le reste de la tête gris, le dos, les ailes et la poitrine vert olive, le ventre gris strié et taché de blanc, la queue noirâtre et rouge.
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Afrique au sud du Sahara.
 </t>
@@ -579,7 +595,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente les fourrés épineux.
 </t>
@@ -610,7 +628,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est plutôt insectivore (consommant en particulier des termites) en période de reproduction et granivore en dehors de celle-ci.
 Il recherche sa nourriture essentiellement au sol.
@@ -642,7 +662,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid est construit dans une touffe d'herbes ou dans un buisson. La femelle pond 4 ou 5 œufs. L'incubation dure environ 16 jours. Les jeunes s'envolent 20 ou 21 jours après leur naissance.
 </t>
@@ -673,9 +695,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (10 juil. 2011)[1], cet oiseau est représenté par quatre sous-espèces :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (10 juil. 2011), cet oiseau est représenté par quatre sous-espèces :
 Pytilia melba citerior ;
 Pytilia melba grotei ;
 Pytilia melba melba ;
